--- a/rpgdemo/xlsxs/chessConfig.xlsx
+++ b/rpgdemo/xlsxs/chessConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="9345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="@人物初始化" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+  <si>
+    <t>ID[!.][funcInt]</t>
+  </si>
   <si>
     <t>name[.][funcStr]</t>
   </si>
   <si>
-    <t>level[.][funcInt]</t>
+    <t>attribute[.$][funcTupleInt]</t>
   </si>
   <si>
     <t>fee[.][funcInt]</t>
@@ -35,19 +38,22 @@
     <t>attack[.][funcInt]</t>
   </si>
   <si>
-    <t>attackRate[.][funcFloat]</t>
+    <t>attackRate[.][funcInt]</t>
+  </si>
+  <si>
+    <t>attackType[.$][funcInt]</t>
+  </si>
+  <si>
+    <t>attackRange[.][funcInt]</t>
   </si>
   <si>
     <t>defense[.][funcInt]</t>
   </si>
   <si>
-    <t>moveSpeed[.][funcInt]</t>
-  </si>
-  <si>
-    <t>attackRange[.][funcInt]</t>
-  </si>
-  <si>
-    <t>nextID[][funcInt]</t>
+    <t>spellResistance[.][funcInt]</t>
+  </si>
+  <si>
+    <t>hit[.][funcInt]</t>
   </si>
   <si>
     <t>skillsID[][funcEval]</t>
@@ -62,9 +68,6 @@
     <t>属性</t>
   </si>
   <si>
-    <t>等级</t>
-  </si>
-  <si>
     <t>费用</t>
   </si>
   <si>
@@ -80,16 +83,31 @@
     <t>攻击速度</t>
   </si>
   <si>
-    <t>防御力</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>攻击范围</t>
-  </si>
-  <si>
-    <t>合成后的编号</t>
+    <t>攻击类型（近战/远程）</t>
+  </si>
+  <si>
+    <t>攻击范围（单位：像素）</t>
+  </si>
+  <si>
+    <t>移动速度（单位：格）</t>
+  </si>
+  <si>
+    <t>护甲</t>
+  </si>
+  <si>
+    <t>魔抗</t>
+  </si>
+  <si>
+    <t>回血（单位：x/秒）</t>
+  </si>
+  <si>
+    <t>回魔（单位：x/秒）</t>
+  </si>
+  <si>
+    <t>闪避（单位：%）</t>
+  </si>
+  <si>
+    <t>必定命中（单位：%）</t>
   </si>
   <si>
     <t>技能编号</t>
@@ -98,10 +116,22 @@
     <t>小磁怪</t>
   </si>
   <si>
-    <t>三和一磁怪</t>
-  </si>
-  <si>
-    <t>大磁怪</t>
+    <t>电,钢</t>
+  </si>
+  <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>波波</t>
+  </si>
+  <si>
+    <t>一般,飞行</t>
+  </si>
+  <si>
+    <t>化石翼龙</t>
+  </si>
+  <si>
+    <t>飞行,岩石</t>
   </si>
   <si>
     <t>人物初始化:datas</t>
@@ -110,9 +140,15 @@
     <t>草:1</t>
   </si>
   <si>
+    <t>远程:1</t>
+  </si>
+  <si>
     <t>火:2</t>
   </si>
   <si>
+    <t>近战:2</t>
+  </si>
+  <si>
     <t>水:3</t>
   </si>
   <si>
@@ -161,23 +197,19 @@
     <t>妖精:17</t>
   </si>
   <si>
-    <t>ID[!.][funcInt]</t>
+    <t>dodge[.][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>attribute[.$][funcTupleInt]</t>
+    <t>restoreHP[.][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>电,草</t>
+    <t>restoreMP[.][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>钢,火</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电,水</t>
+    <t>moveSpeed[.][funcFloat]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
@@ -601,231 +633,296 @@
     <col min="1" max="1" width="17.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23" style="2" customWidth="1"/>
     <col min="11" max="11" width="28" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23" style="2" customWidth="1"/>
-    <col min="13" max="13" width="22" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.6640625" style="2"/>
+    <col min="12" max="17" width="25.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="26" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1">
+        <v>61</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>27</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="5">
         <v>600</v>
       </c>
+      <c r="F3" s="8">
+        <v>100</v>
+      </c>
       <c r="G3" s="8">
-        <v>100</v>
-      </c>
-      <c r="H3" s="8">
         <v>40</v>
       </c>
-      <c r="I3" s="2">
-        <v>1.2</v>
+      <c r="H3" s="2">
+        <v>120</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J3" s="2">
+        <v>400</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L3" s="2">
         <v>5</v>
       </c>
-      <c r="K3" s="2">
-        <v>4</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
       <c r="M3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
         <v>600</v>
       </c>
+      <c r="F4" s="8">
+        <v>100</v>
+      </c>
       <c r="G4" s="8">
-        <v>100</v>
-      </c>
-      <c r="H4" s="8">
         <v>40</v>
       </c>
-      <c r="I4" s="2">
-        <v>1.2</v>
+      <c r="H4" s="2">
+        <v>130</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J4" s="2">
+        <v>400</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L4" s="2">
         <v>5</v>
       </c>
-      <c r="K4" s="2">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
+        <v>20</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
         <v>1</v>
       </c>
-      <c r="M4" s="2">
-        <v>3</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <v>600</v>
       </c>
+      <c r="F5" s="8">
+        <v>100</v>
+      </c>
       <c r="G5" s="8">
-        <v>100</v>
-      </c>
-      <c r="H5" s="8">
         <v>40</v>
       </c>
-      <c r="I5" s="2">
-        <v>1.2</v>
+      <c r="H5" s="2">
+        <v>130</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J5" s="2">
+        <v>400</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L5" s="2">
         <v>5</v>
       </c>
-      <c r="K5" s="2">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
+      <c r="M5" s="2">
+        <v>20</v>
       </c>
       <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
         <v>2</v>
       </c>
     </row>
@@ -841,13 +938,14 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -855,97 +953,103 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
